--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="12060" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="12060" windowHeight="6510" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Service" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Renewal Strategy" sheetId="4" r:id="rId4"/>
     <sheet name="Subscription Management" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -972,9 +972,6 @@
     <t>TRAILZ13</t>
   </si>
   <si>
-    <t>DOVETAIL SERVICES,800 GUILLAT AVENUE,KENT SCIENCE PARK,SITTINGBOURNE</t>
-  </si>
-  <si>
     <t>MENS RUNNING MAGAZINE</t>
   </si>
   <si>
@@ -994,13 +991,16 @@
   </si>
   <si>
     <t>DOVECU4533688</t>
+  </si>
+  <si>
+    <t>DOVETAIL SERVICES,800 GUILLAT AVENUE,KENT SCIENCE PARK,SITTINGBOURNE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,7 +1234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1269,7 +1268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1445,14 +1443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -1484,7 +1482,7 @@
     <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="17" t="s">
         <v>46</v>
       </c>
@@ -1510,7 +1508,7 @@
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="14"/>
       <c r="B2" s="16" t="s">
         <v>3</v>
@@ -1561,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="14"/>
       <c r="B3" s="18" t="s">
         <v>154</v>
@@ -1612,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
@@ -1638,7 +1636,7 @@
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
@@ -1664,7 +1662,7 @@
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="14"/>
       <c r="B7" s="16" t="s">
         <v>3</v>
@@ -1712,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="14"/>
       <c r="B8" s="18" t="s">
         <v>154</v>
@@ -1760,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="17" t="s">
         <v>49</v>
       </c>
@@ -1786,7 +1784,7 @@
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="17" t="s">
         <v>57</v>
       </c>
@@ -1812,7 +1810,7 @@
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
         <v>3</v>
@@ -1878,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="14"/>
       <c r="B13" s="18" t="s">
         <v>154</v>
@@ -1944,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="17" t="s">
         <v>58</v>
       </c>
@@ -1970,7 +1968,7 @@
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="17" t="s">
         <v>64</v>
       </c>
@@ -1996,7 +1994,7 @@
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
         <v>3</v>
@@ -2047,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
         <v>154</v>
@@ -2059,7 +2057,7 @@
         <v>315</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>316</v>
@@ -2098,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="17" t="s">
         <v>65</v>
       </c>
@@ -2124,7 +2122,7 @@
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="17" t="s">
         <v>67</v>
       </c>
@@ -2150,7 +2148,7 @@
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="14"/>
       <c r="B22" s="16" t="s">
         <v>3</v>
@@ -2201,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="14"/>
       <c r="B23" s="18" t="s">
         <v>154</v>
@@ -2252,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="17" t="s">
         <v>68</v>
       </c>
@@ -2278,7 +2276,7 @@
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="17" t="s">
         <v>83</v>
       </c>
@@ -2304,7 +2302,7 @@
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="14"/>
       <c r="B27" s="16" t="s">
         <v>3</v>
@@ -2370,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="14"/>
       <c r="B28" s="18" t="s">
         <v>154</v>
@@ -2436,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="17" t="s">
         <v>84</v>
       </c>
@@ -2462,7 +2460,7 @@
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="17" t="s">
         <v>85</v>
       </c>
@@ -2488,7 +2486,7 @@
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="14"/>
       <c r="B32" s="16" t="s">
         <v>3</v>
@@ -2527,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33" s="14"/>
       <c r="B33" s="18" t="s">
         <v>154</v>
@@ -2566,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34" s="17" t="s">
         <v>86</v>
       </c>
@@ -2588,7 +2586,7 @@
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="17" t="s">
         <v>88</v>
       </c>
@@ -2610,7 +2608,7 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="14"/>
       <c r="B37" s="16" t="s">
         <v>3</v>
@@ -2658,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="14"/>
       <c r="B38" s="18" t="s">
         <v>154</v>
@@ -2706,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="17" t="s">
         <v>89</v>
       </c>
@@ -2728,7 +2726,7 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41" s="17" t="s">
         <v>96</v>
       </c>
@@ -2750,7 +2748,7 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42" s="14"/>
       <c r="B42" s="16" t="s">
         <v>3</v>
@@ -2777,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43" s="14"/>
       <c r="B43" s="18" t="s">
         <v>154</v>
@@ -2804,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44" s="17" t="s">
         <v>97</v>
       </c>
@@ -2826,7 +2824,7 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46" s="17" t="s">
         <v>108</v>
       </c>
@@ -2848,7 +2846,7 @@
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47" s="14"/>
       <c r="B47" s="16" t="s">
         <v>3</v>
@@ -2902,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48" s="14"/>
       <c r="B48" s="18" t="s">
         <v>154</v>
@@ -2917,7 +2915,7 @@
         <v>158</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>155</v>
@@ -2956,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="17" t="s">
         <v>109</v>
       </c>
@@ -2979,7 +2977,7 @@
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="17" t="s">
         <v>112</v>
       </c>
@@ -3002,7 +3000,7 @@
       <c r="R51" s="14"/>
       <c r="S51" s="14"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="14"/>
       <c r="B52" s="16" t="s">
         <v>3</v>
@@ -3059,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="14"/>
       <c r="B53" s="18" t="s">
         <v>154</v>
@@ -3116,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="17" t="s">
         <v>113</v>
       </c>
@@ -3139,7 +3137,7 @@
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="17" t="s">
         <v>114</v>
       </c>
@@ -3162,7 +3160,7 @@
       <c r="R56" s="14"/>
       <c r="S56" s="14"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="14"/>
       <c r="B57" s="16" t="s">
         <v>3</v>
@@ -3186,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="14"/>
       <c r="B58" s="18" t="s">
         <v>154</v>
@@ -3210,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="17" t="s">
         <v>115</v>
       </c>
@@ -3233,7 +3231,7 @@
       <c r="R59" s="14"/>
       <c r="S59" s="14"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="17" t="s">
         <v>118</v>
       </c>
@@ -3256,7 +3254,7 @@
       <c r="R61" s="14"/>
       <c r="S61" s="14"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="14"/>
       <c r="B62" s="16" t="s">
         <v>3</v>
@@ -3280,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="14"/>
       <c r="B63" s="18" t="s">
         <v>154</v>
@@ -3304,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="17" t="s">
         <v>119</v>
       </c>
@@ -3327,7 +3325,7 @@
       <c r="R64" s="14"/>
       <c r="S64" s="14"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="17" t="s">
         <v>122</v>
       </c>
@@ -3350,7 +3348,7 @@
       <c r="R66" s="14"/>
       <c r="S66" s="14"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="14"/>
       <c r="B67" s="16" t="s">
         <v>3</v>
@@ -3377,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="14"/>
       <c r="B68" s="18" t="s">
         <v>154</v>
@@ -3404,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="17" t="s">
         <v>123</v>
       </c>
@@ -3427,7 +3425,7 @@
       <c r="R69" s="14"/>
       <c r="S69" s="14"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="17" t="s">
         <v>127</v>
       </c>
@@ -3450,7 +3448,7 @@
       <c r="R71" s="14"/>
       <c r="S71" s="14"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="14"/>
       <c r="B72" s="16" t="s">
         <v>3</v>
@@ -3507,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="14"/>
       <c r="B73" s="18" t="s">
         <v>154</v>
@@ -3534,7 +3532,7 @@
         <v>149</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>150</v>
@@ -3558,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="17" t="s">
         <v>128</v>
       </c>
@@ -3581,7 +3579,7 @@
       <c r="R74" s="14"/>
       <c r="S74" s="14"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="17" t="s">
         <v>134</v>
       </c>
@@ -3604,7 +3602,7 @@
       <c r="R76" s="14"/>
       <c r="S76" s="14"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="14"/>
       <c r="B77" s="16" t="s">
         <v>3</v>
@@ -3628,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="14"/>
       <c r="B78" s="18" t="s">
         <v>154</v>
@@ -3652,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="17" t="s">
         <v>135</v>
       </c>
@@ -3675,7 +3673,7 @@
       <c r="R79" s="14"/>
       <c r="S79" s="14"/>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41">
       <c r="A81" s="17" t="s">
         <v>140</v>
       </c>
@@ -3720,7 +3718,7 @@
       <c r="AN81" s="14"/>
       <c r="AO81" s="14"/>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41">
       <c r="A82" s="14"/>
       <c r="B82" s="16" t="s">
         <v>3</v>
@@ -3753,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41">
       <c r="A83" s="14"/>
       <c r="B83" s="18" t="s">
         <v>154</v>
@@ -3786,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41">
       <c r="A84" s="17" t="s">
         <v>141</v>
       </c>
@@ -3831,7 +3829,7 @@
       <c r="AN84" s="14"/>
       <c r="AO84" s="14"/>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41">
       <c r="A86" s="17" t="s">
         <v>238</v>
       </c>
@@ -3876,7 +3874,7 @@
       <c r="AN86" s="14"/>
       <c r="AO86" s="14"/>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41">
       <c r="A87" s="14"/>
       <c r="B87" s="16" t="s">
         <v>3</v>
@@ -3918,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41">
       <c r="A88" s="14"/>
       <c r="B88" s="18" t="s">
         <v>154</v>
@@ -3960,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41">
       <c r="A89" s="17" t="s">
         <v>243</v>
       </c>
@@ -4005,7 +4003,7 @@
       <c r="AN89" s="14"/>
       <c r="AO89" s="14"/>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41">
       <c r="A91" s="17" t="s">
         <v>244</v>
       </c>
@@ -4050,7 +4048,7 @@
       <c r="AN91" s="14"/>
       <c r="AO91" s="14"/>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41">
       <c r="A92" s="14"/>
       <c r="B92" s="16" t="s">
         <v>3</v>
@@ -4083,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41">
       <c r="A93" s="14"/>
       <c r="B93" s="18" t="s">
         <v>154</v>
@@ -4116,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41">
       <c r="A94" s="17" t="s">
         <v>247</v>
       </c>
@@ -4161,7 +4159,7 @@
       <c r="AN94" s="14"/>
       <c r="AO94" s="14"/>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4204,7 +4202,7 @@
       <c r="AN95" s="14"/>
       <c r="AO95" s="14"/>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41">
       <c r="A96" s="17" t="s">
         <v>248</v>
       </c>
@@ -4249,7 +4247,7 @@
       <c r="AN96" s="14"/>
       <c r="AO96" s="14"/>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41">
       <c r="A97" s="14"/>
       <c r="B97" s="16" t="s">
         <v>3</v>
@@ -4273,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41">
       <c r="A98" s="14"/>
       <c r="B98" s="18" t="s">
         <v>154</v>
@@ -4297,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41">
       <c r="A99" s="17" t="s">
         <v>251</v>
       </c>
@@ -4342,7 +4340,7 @@
       <c r="AN99" s="14"/>
       <c r="AO99" s="14"/>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4385,7 +4383,7 @@
       <c r="AN100" s="14"/>
       <c r="AO100" s="14"/>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41">
       <c r="A101" s="17" t="s">
         <v>252</v>
       </c>
@@ -4430,7 +4428,7 @@
       <c r="AN101" s="14"/>
       <c r="AO101" s="14"/>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41">
       <c r="A102" s="14"/>
       <c r="B102" s="16" t="s">
         <v>3</v>
@@ -4487,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41">
       <c r="A103" s="14"/>
       <c r="B103" s="18" t="s">
         <v>154</v>
@@ -4544,7 +4542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41">
       <c r="A104" s="17" t="s">
         <v>257</v>
       </c>
@@ -4589,7 +4587,7 @@
       <c r="AN104" s="14"/>
       <c r="AO104" s="14"/>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -4632,7 +4630,7 @@
       <c r="AN105" s="14"/>
       <c r="AO105" s="14"/>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41">
       <c r="A106" s="17" t="s">
         <v>258</v>
       </c>
@@ -4677,7 +4675,7 @@
       <c r="AN106" s="14"/>
       <c r="AO106" s="14"/>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -4720,7 +4718,7 @@
       <c r="AN107" s="14"/>
       <c r="AO107" s="14"/>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4763,7 +4761,7 @@
       <c r="AN108" s="14"/>
       <c r="AO108" s="14"/>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41">
       <c r="A109" s="17" t="s">
         <v>259</v>
       </c>
@@ -4808,7 +4806,7 @@
       <c r="AN109" s="14"/>
       <c r="AO109" s="14"/>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -4851,7 +4849,7 @@
       <c r="AN110" s="14"/>
       <c r="AO110" s="14"/>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41">
       <c r="A111" s="17" t="s">
         <v>260</v>
       </c>
@@ -4896,7 +4894,7 @@
       <c r="AN111" s="14"/>
       <c r="AO111" s="14"/>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41">
       <c r="A112" s="14"/>
       <c r="B112" s="16" t="s">
         <v>3</v>
@@ -4923,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41">
       <c r="A113" s="14"/>
       <c r="B113" s="18" t="s">
         <v>154</v>
@@ -4950,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41">
       <c r="A114" s="17" t="s">
         <v>263</v>
       </c>
@@ -4995,7 +4993,7 @@
       <c r="AN114" s="14"/>
       <c r="AO114" s="14"/>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5038,7 +5036,7 @@
       <c r="AN115" s="14"/>
       <c r="AO115" s="14"/>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41">
       <c r="A116" s="17" t="s">
         <v>264</v>
       </c>
@@ -5083,7 +5081,7 @@
       <c r="AN116" s="14"/>
       <c r="AO116" s="14"/>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41">
       <c r="A117" s="14"/>
       <c r="B117" s="16" t="s">
         <v>3</v>
@@ -5107,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41">
       <c r="A118" s="14"/>
       <c r="B118" s="18" t="s">
         <v>154</v>
@@ -5131,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41">
       <c r="A119" s="17" t="s">
         <v>265</v>
       </c>
@@ -5176,7 +5174,7 @@
       <c r="AN119" s="14"/>
       <c r="AO119" s="14"/>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41">
       <c r="A121" s="17" t="s">
         <v>266</v>
       </c>
@@ -5221,7 +5219,7 @@
       <c r="AN121" s="14"/>
       <c r="AO121" s="14"/>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41">
       <c r="A122" s="14"/>
       <c r="B122" s="16" t="s">
         <v>3</v>
@@ -5272,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41">
       <c r="A123" s="14"/>
       <c r="B123" s="18" t="s">
         <v>154</v>
@@ -5299,7 +5297,7 @@
         <v>224</v>
       </c>
       <c r="J123" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>15</v>
@@ -5323,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41">
       <c r="A124" s="17" t="s">
         <v>270</v>
       </c>
@@ -5368,7 +5366,7 @@
       <c r="AN124" s="14"/>
       <c r="AO124" s="14"/>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41">
       <c r="A126" s="17" t="s">
         <v>271</v>
       </c>
@@ -5413,7 +5411,7 @@
       <c r="AN126" s="14"/>
       <c r="AO126" s="14"/>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41">
       <c r="A127" s="14"/>
       <c r="B127" s="16" t="s">
         <v>3</v>
@@ -5506,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41">
       <c r="A128" s="14"/>
       <c r="B128" s="18" t="s">
         <v>154</v>
@@ -5533,7 +5531,7 @@
         <v>224</v>
       </c>
       <c r="J128" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K128" s="15" t="s">
         <v>15</v>
@@ -5599,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" s="17" t="s">
         <v>284</v>
       </c>
@@ -5623,7 +5621,7 @@
       <c r="S129" s="14"/>
       <c r="T129" s="14"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="17" t="s">
         <v>285</v>
       </c>
@@ -5647,7 +5645,7 @@
       <c r="S131" s="14"/>
       <c r="T131" s="14"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="14"/>
       <c r="B132" s="16" t="s">
         <v>3</v>
@@ -5707,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" s="14"/>
       <c r="B133" s="18" t="s">
         <v>154</v>
@@ -5734,7 +5732,7 @@
         <v>224</v>
       </c>
       <c r="J133" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K133" s="15" t="s">
         <v>15</v>
@@ -5767,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" s="17" t="s">
         <v>292</v>
       </c>
@@ -5791,7 +5789,7 @@
       <c r="S134" s="14"/>
       <c r="T134" s="14"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" s="17" t="s">
         <v>293</v>
       </c>
@@ -5815,7 +5813,7 @@
       <c r="S136" s="14"/>
       <c r="T136" s="14"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" s="14"/>
       <c r="B137" s="16" t="s">
         <v>3</v>
@@ -5836,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" s="14"/>
       <c r="B138" s="18" t="s">
         <v>154</v>
@@ -5857,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" s="17" t="s">
         <v>294</v>
       </c>
@@ -5918,14 +5916,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -5935,12 +5933,12 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -5954,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
@@ -5968,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>93</v>
       </c>
@@ -5982,14 +5980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -6010,12 +6008,12 @@
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6059,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
@@ -6103,17 +6101,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -6157,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
@@ -6201,17 +6199,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -6261,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -6311,17 +6309,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
@@ -6377,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
@@ -6433,17 +6431,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -6469,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
@@ -6495,17 +6493,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -6549,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="B28" s="5" t="s">
         <v>82</v>
       </c>
@@ -6593,7 +6591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="4" t="s">
         <v>185</v>
       </c>
@@ -6611,14 +6609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -6637,12 +6635,12 @@
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6686,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
@@ -6730,17 +6728,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -6796,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="B8" s="5" t="s">
         <v>82</v>
       </c>
@@ -6852,17 +6850,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -6918,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -6974,17 +6972,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
@@ -7040,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="B18" s="5" t="s">
         <v>82</v>
       </c>
@@ -7096,12 +7094,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="11:11">
       <c r="K127" t="s">
         <v>197</v>
       </c>
@@ -7119,14 +7117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1"/>
@@ -7140,7 +7138,7 @@
     <col min="10" max="10" width="17.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="10.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="27" customWidth="1"/>
     <col min="16" max="16" width="30" style="27" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" style="27" bestFit="1" customWidth="1"/>
@@ -7152,12 +7150,12 @@
     <col min="26" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="26" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
@@ -7231,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="45">
       <c r="B3" s="18" t="s">
         <v>154</v>
       </c>
@@ -7266,10 +7264,10 @@
         <v>16</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="O3" s="29" t="s">
         <v>156</v>
@@ -7305,17 +7303,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="26" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -7383,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="105">
       <c r="B8" s="18" t="s">
         <v>154</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>297</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>17</v>
@@ -7421,10 +7419,10 @@
         <v>16</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P8" s="29" t="s">
         <v>156</v>
@@ -7451,17 +7449,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="26" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="26" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="B12" s="28" t="s">
         <v>3</v>
       </c>
@@ -7529,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="45">
       <c r="B13" s="18" t="s">
         <v>154</v>
       </c>
@@ -7540,7 +7538,7 @@
         <v>315</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>161</v>
@@ -7555,7 +7553,7 @@
         <v>297</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K13" s="33">
         <v>2</v>
@@ -7570,10 +7568,10 @@
         <v>16</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>23</v>
@@ -7597,12 +7595,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="26" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="12060" windowHeight="6510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="12060" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Service" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Schedules" sheetId="3" r:id="rId3"/>
     <sheet name="Renewal Strategy" sheetId="4" r:id="rId4"/>
     <sheet name="Subscription Management" sheetId="5" r:id="rId5"/>
+    <sheet name="Offers" sheetId="7" r:id="rId6"/>
+    <sheet name="Products" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="468">
   <si>
     <t>Execution</t>
   </si>
@@ -219,12 +221,6 @@
   </si>
   <si>
     <t>CustomerReference</t>
-  </si>
-  <si>
-    <t>customerServiceTypeSearch_START</t>
-  </si>
-  <si>
-    <t>customerServiceTypeSearch_END</t>
   </si>
   <si>
     <t>AddressLine</t>
@@ -333,12 +329,6 @@
     <t>nonOptimisticStandardSchedule_END</t>
   </si>
   <si>
-    <t>Optimistic Schedule</t>
-  </si>
-  <si>
-    <t>Non Optimistic Schedule</t>
-  </si>
-  <si>
     <t>cSRenewSub_START</t>
   </si>
   <si>
@@ -513,12 +503,6 @@
     <t>Product Only Schedule</t>
   </si>
   <si>
-    <t>Product only Schedule</t>
-  </si>
-  <si>
-    <t>Back Issues Schedule</t>
-  </si>
-  <si>
     <t>Back Issues</t>
   </si>
   <si>
@@ -540,12 +524,6 @@
     <t>BACKISSUE</t>
   </si>
   <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>UK CWO-DOVEBR6</t>
-  </si>
-  <si>
     <t>maintSchedule_START</t>
   </si>
   <si>
@@ -744,9 +722,6 @@
     <t>IssueNumber</t>
   </si>
   <si>
-    <t>ISSUE 414</t>
-  </si>
-  <si>
     <t>cSAmendContract_ChangeStartIssue_END</t>
   </si>
   <si>
@@ -759,9 +734,6 @@
     <t>DeliveryAddress</t>
   </si>
   <si>
-    <t>LE101DD</t>
-  </si>
-  <si>
     <t>BRITISH HEART FOUNDATION 58 CASTLE STREET HINCKLEY</t>
   </si>
   <si>
@@ -1008,9 +980,6 @@
     <t>6FF74155</t>
   </si>
   <si>
-    <t>OrderReference</t>
-  </si>
-  <si>
     <t>PrevSubscriptionReference</t>
   </si>
   <si>
@@ -1023,18 +992,9 @@
     <t>customerServiceTypeSearch_Country_END</t>
   </si>
   <si>
-    <t>customerServiceTypeSearch_Invoice_END</t>
-  </si>
-  <si>
-    <t>customerServiceTypeSearch_Invoice_START</t>
-  </si>
-  <si>
     <t>Term Change - Compensation</t>
   </si>
   <si>
-    <t>DOVECU4533653</t>
-  </si>
-  <si>
     <t>DOVECU4533663</t>
   </si>
   <si>
@@ -1044,7 +1004,427 @@
     <t>FEB 06</t>
   </si>
   <si>
-    <t>Back Issues Schedule 2016-07-20</t>
+    <t>DOVECU4533651</t>
+  </si>
+  <si>
+    <t>ISSUE 415</t>
+  </si>
+  <si>
+    <t>Optimistic_Schedule3</t>
+  </si>
+  <si>
+    <t>NonOptimistic_Schedule3</t>
+  </si>
+  <si>
+    <t>ProductOnly_Schedule3</t>
+  </si>
+  <si>
+    <t>BackIssues_Schedule3</t>
+  </si>
+  <si>
+    <t>Maintenance_Schedule3</t>
+  </si>
+  <si>
+    <t>manageMerchandise_START</t>
+  </si>
+  <si>
+    <t>manageMerchandise_END</t>
+  </si>
+  <si>
+    <t>MerchandiseName</t>
+  </si>
+  <si>
+    <t>BrandAssociation</t>
+  </si>
+  <si>
+    <t>StockAssociationPercentage</t>
+  </si>
+  <si>
+    <t>DepletionOption</t>
+  </si>
+  <si>
+    <t>Test Merchandise</t>
+  </si>
+  <si>
+    <t>SELL_ON_ZERO</t>
+  </si>
+  <si>
+    <t>manageClients_START</t>
+  </si>
+  <si>
+    <t>manageClients_END</t>
+  </si>
+  <si>
+    <t>Test Client</t>
+  </si>
+  <si>
+    <t>LE10 1DD</t>
+  </si>
+  <si>
+    <t>standardOffer_START</t>
+  </si>
+  <si>
+    <t>BillingCollection</t>
+  </si>
+  <si>
+    <t>MinimumCopies</t>
+  </si>
+  <si>
+    <t>OptimisticIssues</t>
+  </si>
+  <si>
+    <t>GraceIssues</t>
+  </si>
+  <si>
+    <t>Schedules</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>Ways</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>PriceOffer</t>
+  </si>
+  <si>
+    <t>PriceTotal</t>
+  </si>
+  <si>
+    <t>TaxCategory</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>ChargePrice</t>
+  </si>
+  <si>
+    <t>BillingFrequency</t>
+  </si>
+  <si>
+    <t>DurationType</t>
+  </si>
+  <si>
+    <t>RenewalStrategy</t>
+  </si>
+  <si>
+    <t>OfferStandard</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>18/07/2016</t>
+  </si>
+  <si>
+    <t>Non Optimistic Schedule 2016-07-20</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>No Tax</t>
+  </si>
+  <si>
+    <t>Standard Rate Product</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>BASE CYCLE</t>
+  </si>
+  <si>
+    <t>standardOffer_END</t>
+  </si>
+  <si>
+    <t>productOnlyOffer_START</t>
+  </si>
+  <si>
+    <t>OfferProductOnly</t>
+  </si>
+  <si>
+    <t>Product Only</t>
+  </si>
+  <si>
+    <t>Product_only</t>
+  </si>
+  <si>
+    <t>productOnlyOffer_END</t>
+  </si>
+  <si>
+    <t>prospectOffer_START</t>
+  </si>
+  <si>
+    <t>OfferProspect</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>PRO_FORMA</t>
+  </si>
+  <si>
+    <t>prospectOffer_END</t>
+  </si>
+  <si>
+    <t>invoiceOffer_START</t>
+  </si>
+  <si>
+    <t>OfferInvoice</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>invoiceOffer_END</t>
+  </si>
+  <si>
+    <t>upgradeBoundary_START</t>
+  </si>
+  <si>
+    <t>UpgradeBrand</t>
+  </si>
+  <si>
+    <t>UpgradeRegion</t>
+  </si>
+  <si>
+    <t>AddBoundary</t>
+  </si>
+  <si>
+    <t>AddCharge</t>
+  </si>
+  <si>
+    <t>OfferUpgrade</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>upgradeBoundary_END</t>
+  </si>
+  <si>
+    <t>maintenanceOffer_START</t>
+  </si>
+  <si>
+    <t>12 issues @ 79.00</t>
+  </si>
+  <si>
+    <t>maintenanceOffer_END</t>
+  </si>
+  <si>
+    <t>addNewSchedule_START</t>
+  </si>
+  <si>
+    <t>ScheduleName</t>
+  </si>
+  <si>
+    <t>ScheduleDescription</t>
+  </si>
+  <si>
+    <t>ScheduleOptimistic</t>
+  </si>
+  <si>
+    <t>ScheduleCalendar</t>
+  </si>
+  <si>
+    <t>ScheduleActive</t>
+  </si>
+  <si>
+    <t>ScheduleSubType</t>
+  </si>
+  <si>
+    <t>NewSchedule1</t>
+  </si>
+  <si>
+    <t>Add new schedule test</t>
+  </si>
+  <si>
+    <t>addNewSchedule_END</t>
+  </si>
+  <si>
+    <t>SagaReference</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>ContactType</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>QuestionType</t>
+  </si>
+  <si>
+    <t>DPP</t>
+  </si>
+  <si>
+    <t>OPT_IN</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>/DTP/BRAND/PHONE</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>manageBrands_START</t>
+  </si>
+  <si>
+    <t>manageBrands_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_OrderReference_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_OrderReference_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_PrevSubscriptionreference_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_PrevSubscriptionreference_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_AddressLine_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_AddressLine_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_PostCode_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_PostCode_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_CompanyName_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_CompanyName_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_LastName_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_LastName_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_FirstName_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_FirstName_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_Email_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_Email_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_WebID_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_WebID_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_AccountNumber_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_AccountNumber_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_SortCode_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_SortCode_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_CreditCardNumber_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_CreditCardNumber_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_ChequeNumber_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_ChequeNumber_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_InvoiceNumber_START</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_InvoiceNumber_END</t>
+  </si>
+  <si>
+    <t>OrderReferenceNumber</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_CustomerReference_END</t>
+  </si>
+  <si>
+    <t>customerServiceTypeSearch_CustomerReference_START</t>
+  </si>
+  <si>
+    <t>777481</t>
+  </si>
+  <si>
+    <t>DOVECU2242319</t>
+  </si>
+  <si>
+    <t>DOVEINV436109</t>
+  </si>
+  <si>
+    <t>DOVEDNR121696</t>
+  </si>
+  <si>
+    <t>HAYMARKET MAGAZINES LTD</t>
+  </si>
+  <si>
+    <t>CLASSIC &amp; SPORTSCAR</t>
+  </si>
+  <si>
+    <t>UBM INFORMATION LTD</t>
+  </si>
+  <si>
+    <t>BUILDING PRINT</t>
+  </si>
+  <si>
+    <t>DOVECU4486852</t>
+  </si>
+  <si>
+    <t>27533483</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1194,6 +1574,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1499,20 +1884,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO214"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -1616,7 +2001,7 @@
     <row r="3" spans="1:22">
       <c r="A3" s="11"/>
       <c r="B3" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>4</v>
@@ -1625,22 +2010,22 @@
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>15</v>
@@ -1767,7 +2152,7 @@
     <row r="8" spans="1:22">
       <c r="A8" s="11"/>
       <c r="B8" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>4</v>
@@ -1776,22 +2161,22 @@
         <v>5</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>15</v>
@@ -1933,7 +2318,7 @@
     <row r="13" spans="1:22">
       <c r="A13" s="11"/>
       <c r="B13" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>4</v>
@@ -1942,22 +2327,22 @@
         <v>5</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>15</v>
@@ -1966,13 +2351,13 @@
         <v>19</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>15</v>
@@ -2066,7 +2451,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>8</v>
@@ -2105,34 +2490,34 @@
     <row r="18" spans="1:22">
       <c r="A18" s="11"/>
       <c r="B18" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G18" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>15</v>
@@ -2184,7 +2569,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="14" t="s">
-        <v>67</v>
+        <v>457</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2226,58 +2611,13 @@
         <v>66</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V22" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="11"/>
       <c r="B23" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>4</v>
@@ -2286,57 +2626,18 @@
         <v>5</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R23" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="14" t="s">
-        <v>68</v>
+        <v>456</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2361,13 +2662,11 @@
       <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" s="11" customFormat="1">
-      <c r="A25" s="31">
-        <v>1</v>
-      </c>
+      <c r="A25" s="31"/>
     </row>
     <row r="26" spans="1:22" s="11" customFormat="1">
       <c r="A26" s="14" t="s">
-        <v>67</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="11" customFormat="1">
@@ -2387,57 +2686,15 @@
         <v>66</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>69</v>
+        <v>455</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V27" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="11" customFormat="1">
       <c r="B28" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>4</v>
@@ -2446,67 +2703,29 @@
         <v>5</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>215</v>
+        <v>466</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>467</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R28" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="11" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="11" customFormat="1">
-      <c r="A30" s="31">
-        <v>2</v>
-      </c>
+      <c r="A30" s="31"/>
     </row>
     <row r="31" spans="1:22" s="11" customFormat="1">
       <c r="A31" s="14" t="s">
-        <v>67</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:22" s="11" customFormat="1">
@@ -2526,57 +2745,15 @@
         <v>66</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>69</v>
+        <v>319</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P32" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S32" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V32" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="11" customFormat="1">
+    <row r="33" spans="1:8" s="11" customFormat="1">
       <c r="B33" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>4</v>
@@ -2585,70 +2762,28 @@
         <v>5</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>215</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R33" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="11" customFormat="1">
+    <row r="34" spans="1:8" s="11" customFormat="1">
       <c r="A34" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" s="11" customFormat="1">
-      <c r="A35" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" s="11" customFormat="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1">
+      <c r="A35" s="31"/>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1">
       <c r="A36" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" s="11" customFormat="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1">
       <c r="B37" s="13" t="s">
         <v>3</v>
       </c>
@@ -2662,60 +2797,15 @@
         <v>6</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V37" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="11" customFormat="1">
+    <row r="38" spans="1:8" s="11" customFormat="1">
       <c r="B38" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>4</v>
@@ -2724,70 +2814,29 @@
         <v>5</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N38" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R38" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="11" customFormat="1">
+    <row r="39" spans="1:8" s="11" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="11" customFormat="1">
-      <c r="A40" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" s="11" customFormat="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1">
+      <c r="A40" s="31"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1">
       <c r="A41" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="11" customFormat="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1">
       <c r="B42" s="13" t="s">
         <v>3</v>
       </c>
@@ -2801,60 +2850,15 @@
         <v>6</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R42" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S42" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T42" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U42" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V42" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="11" customFormat="1">
+    <row r="43" spans="1:8" s="11" customFormat="1">
       <c r="B43" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>4</v>
@@ -2863,70 +2867,29 @@
         <v>5</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N43" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O43" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R43" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="11" customFormat="1">
+    <row r="44" spans="1:8" s="11" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" s="11" customFormat="1">
-      <c r="A45" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" s="11" customFormat="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="11" customFormat="1">
+      <c r="A45" s="31"/>
+    </row>
+    <row r="46" spans="1:8" s="11" customFormat="1">
       <c r="A46" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" s="11" customFormat="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="11" customFormat="1">
       <c r="B47" s="13" t="s">
         <v>3</v>
       </c>
@@ -2940,60 +2903,15 @@
         <v>6</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M47" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N47" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q47" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R47" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S47" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V47" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="11" customFormat="1">
+    <row r="48" spans="1:8" s="11" customFormat="1">
       <c r="B48" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>4</v>
@@ -3002,70 +2920,29 @@
         <v>5</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N48" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P48" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q48" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R48" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="11" customFormat="1">
+    <row r="49" spans="1:7" s="11" customFormat="1">
       <c r="A49" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" s="11" customFormat="1">
-      <c r="A50" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="11" customFormat="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="11" customFormat="1">
+      <c r="A50" s="31"/>
+    </row>
+    <row r="51" spans="1:7" s="11" customFormat="1">
       <c r="A51" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" s="11" customFormat="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="11" customFormat="1">
       <c r="B52" s="13" t="s">
         <v>3</v>
       </c>
@@ -3079,60 +2956,15 @@
         <v>6</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P52" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R52" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V52" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="11" customFormat="1">
+    <row r="53" spans="1:7" s="11" customFormat="1">
       <c r="B53" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>4</v>
@@ -3141,70 +2973,29 @@
         <v>5</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M53" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N53" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P53" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q53" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R53" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="11" customFormat="1">
+    <row r="54" spans="1:7" s="11" customFormat="1">
       <c r="A54" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" s="11" customFormat="1">
-      <c r="A55" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" s="11" customFormat="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="11" customFormat="1">
+      <c r="A55" s="31"/>
+    </row>
+    <row r="56" spans="1:7" s="11" customFormat="1">
       <c r="A56" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" s="11" customFormat="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="11" customFormat="1">
       <c r="B57" s="13" t="s">
         <v>3</v>
       </c>
@@ -3218,60 +3009,15 @@
         <v>6</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L57" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M57" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N57" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O57" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P57" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R57" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S57" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U57" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V57" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="11" customFormat="1">
+    <row r="58" spans="1:7" s="11" customFormat="1">
       <c r="B58" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>4</v>
@@ -3280,70 +3026,29 @@
         <v>5</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M58" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N58" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O58" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P58" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q58" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R58" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="11" customFormat="1">
+    <row r="59" spans="1:7" s="11" customFormat="1">
       <c r="A59" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" s="11" customFormat="1">
-      <c r="A60" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" s="11" customFormat="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="11" customFormat="1">
+      <c r="A60" s="31"/>
+    </row>
+    <row r="61" spans="1:7" s="11" customFormat="1">
       <c r="A61" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" s="11" customFormat="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="11" customFormat="1">
       <c r="B62" s="13" t="s">
         <v>3</v>
       </c>
@@ -3357,60 +3062,15 @@
         <v>6</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J62" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M62" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O62" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P62" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R62" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S62" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T62" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V62" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="11" customFormat="1">
+    <row r="63" spans="1:7" s="11" customFormat="1">
       <c r="B63" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>4</v>
@@ -3419,70 +3079,29 @@
         <v>5</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K63" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M63" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N63" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O63" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P63" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q63" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R63" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="11" customFormat="1">
+    <row r="64" spans="1:7" s="11" customFormat="1">
       <c r="A64" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" s="11" customFormat="1">
-      <c r="A65" s="31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" s="11" customFormat="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="11" customFormat="1">
+      <c r="A65" s="31"/>
+    </row>
+    <row r="66" spans="1:8" s="11" customFormat="1">
       <c r="A66" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" s="11" customFormat="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="11" customFormat="1">
       <c r="B67" s="13" t="s">
         <v>3</v>
       </c>
@@ -3499,57 +3118,15 @@
         <v>66</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M67" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N67" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O67" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P67" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R67" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S67" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T67" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U67" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V67" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="11" customFormat="1">
+    <row r="68" spans="1:8" s="11" customFormat="1">
       <c r="B68" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>4</v>
@@ -3558,70 +3135,30 @@
         <v>5</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>214</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F68" s="12"/>
       <c r="G68" s="12" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K68" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N68" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O68" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P68" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R68" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="11" customFormat="1">
+    <row r="69" spans="1:8" s="11" customFormat="1">
       <c r="A69" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" s="11" customFormat="1">
-      <c r="A70" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" s="11" customFormat="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="11" customFormat="1">
+      <c r="A70" s="31"/>
+    </row>
+    <row r="71" spans="1:8" s="11" customFormat="1">
       <c r="A71" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" s="11" customFormat="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="11" customFormat="1">
       <c r="B72" s="13" t="s">
         <v>3</v>
       </c>
@@ -3635,60 +3172,15 @@
         <v>6</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M72" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N72" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O72" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P72" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q72" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R72" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S72" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T72" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V72" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="11" customFormat="1">
+    <row r="73" spans="1:8" s="11" customFormat="1">
       <c r="B73" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>4</v>
@@ -3697,70 +3189,29 @@
         <v>5</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>214</v>
+        <v>151</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K73" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O73" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P73" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R73" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="11" customFormat="1">
+    <row r="74" spans="1:8" s="11" customFormat="1">
       <c r="A74" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" s="11" customFormat="1">
-      <c r="A75" s="31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" s="11" customFormat="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="11" customFormat="1">
+      <c r="A75" s="31"/>
+    </row>
+    <row r="76" spans="1:8" s="11" customFormat="1">
       <c r="A76" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" s="11" customFormat="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="11" customFormat="1">
       <c r="B77" s="13" t="s">
         <v>3</v>
       </c>
@@ -3774,60 +3225,15 @@
         <v>6</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L77" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M77" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N77" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O77" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P77" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q77" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R77" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S77" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T77" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U77" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V77" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="11" customFormat="1">
+    <row r="78" spans="1:8" s="11" customFormat="1">
       <c r="B78" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>4</v>
@@ -3836,70 +3242,29 @@
         <v>5</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>214</v>
+        <v>151</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M78" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N78" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O78" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P78" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q78" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R78" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:22" s="11" customFormat="1">
+    <row r="79" spans="1:8" s="11" customFormat="1">
       <c r="A79" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" s="11" customFormat="1">
-      <c r="A80" s="31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" s="11" customFormat="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="11" customFormat="1">
+      <c r="A80" s="31"/>
+    </row>
+    <row r="81" spans="1:8" s="11" customFormat="1">
       <c r="A81" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" s="11" customFormat="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="11" customFormat="1">
       <c r="B82" s="13" t="s">
         <v>3</v>
       </c>
@@ -3913,60 +3278,15 @@
         <v>6</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J82" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L82" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M82" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N82" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O82" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P82" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q82" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R82" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S82" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T82" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U82" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V82" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="11" customFormat="1">
+    <row r="83" spans="1:8" s="11" customFormat="1">
       <c r="B83" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>4</v>
@@ -3975,70 +3295,29 @@
         <v>5</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>214</v>
+        <v>151</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I83" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J83" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K83" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L83" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M83" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N83" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O83" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P83" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R83" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S83" s="12"/>
-      <c r="T83" s="12"/>
-      <c r="U83" s="12"/>
-      <c r="V83" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="11" customFormat="1">
+    <row r="84" spans="1:8" s="11" customFormat="1">
       <c r="A84" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" s="11" customFormat="1">
-      <c r="A85" s="31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" s="11" customFormat="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="11" customFormat="1">
+      <c r="A85" s="31"/>
+    </row>
+    <row r="86" spans="1:8" s="11" customFormat="1">
       <c r="A86" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" s="11" customFormat="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="11" customFormat="1">
       <c r="B87" s="13" t="s">
         <v>3</v>
       </c>
@@ -4055,129 +3334,49 @@
         <v>66</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J87" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K87" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L87" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M87" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N87" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O87" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P87" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q87" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R87" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S87" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T87" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U87" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V87" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="11" customFormat="1">
+    <row r="88" spans="1:8" s="11" customFormat="1">
       <c r="B88" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>5</v>
+        <v>462</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>155</v>
+        <v>463</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>215</v>
+        <v>459</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>458</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I88" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L88" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M88" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N88" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O88" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P88" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R88" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="11" customFormat="1">
+    <row r="89" spans="1:8" s="11" customFormat="1">
       <c r="A89" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" s="11" customFormat="1">
-      <c r="A90" s="31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" s="11" customFormat="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="11" customFormat="1">
+      <c r="A90" s="31"/>
+    </row>
+    <row r="91" spans="1:8" s="11" customFormat="1">
       <c r="A91" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" s="11" customFormat="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="11" customFormat="1">
       <c r="B92" s="13" t="s">
         <v>3</v>
       </c>
@@ -4194,126 +3393,46 @@
         <v>66</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>69</v>
+        <v>320</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J92" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K92" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L92" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M92" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N92" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O92" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P92" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q92" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R92" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S92" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T92" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U92" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="11" customFormat="1">
+    <row r="93" spans="1:8" s="11" customFormat="1">
       <c r="B93" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>5</v>
+        <v>464</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>155</v>
+        <v>465</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>214</v>
+        <v>461</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>215</v>
+        <v>460</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I93" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J93" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K93" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L93" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M93" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N93" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O93" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P93" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q93" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R93" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="11" customFormat="1">
+    <row r="94" spans="1:8" s="11" customFormat="1">
       <c r="A94" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" s="11" customFormat="1">
-      <c r="A95" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" s="11" customFormat="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="11" customFormat="1">
+      <c r="A95" s="31"/>
+    </row>
+    <row r="96" spans="1:8" s="11" customFormat="1">
       <c r="A96" s="14" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:22" s="11" customFormat="1">
@@ -4330,60 +3449,15 @@
         <v>6</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J97" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="K97" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="L97" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M97" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N97" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O97" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P97" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q97" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="R97" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="S97" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="T97" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="U97" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="V97" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:22" s="11" customFormat="1">
       <c r="B98" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>4</v>
@@ -4392,57 +3466,18 @@
         <v>5</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J98" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K98" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L98" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M98" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N98" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O98" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P98" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q98" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="R98" s="20">
-        <v>461602</v>
-      </c>
-      <c r="S98" s="12"/>
-      <c r="T98" s="12"/>
-      <c r="U98" s="12"/>
-      <c r="V98" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:22" s="11" customFormat="1">
       <c r="A99" s="14" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:22" s="11" customFormat="1">
@@ -4450,7 +3485,7 @@
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -4540,7 +3575,7 @@
     <row r="103" spans="1:22">
       <c r="A103" s="11"/>
       <c r="B103" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>4</v>
@@ -4549,22 +3584,22 @@
         <v>5</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>51</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K103" s="12" t="s">
         <v>15</v>
@@ -4573,13 +3608,13 @@
         <v>19</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N103" s="12" t="s">
         <v>24</v>
       </c>
       <c r="O103" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P103" s="12" t="s">
         <v>15</v>
@@ -4602,7 +3637,7 @@
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -4628,7 +3663,7 @@
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -4670,7 +3705,7 @@
         <v>10</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>8</v>
@@ -4697,34 +3732,34 @@
     <row r="108" spans="1:22">
       <c r="A108" s="11"/>
       <c r="B108" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L108" s="12" t="s">
         <v>15</v>
@@ -4738,7 +3773,7 @@
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -4760,7 +3795,7 @@
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -4795,7 +3830,7 @@
         <v>6</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G112" s="13" t="s">
         <v>10</v>
@@ -4831,37 +3866,37 @@
     <row r="113" spans="1:19">
       <c r="A113" s="11"/>
       <c r="B113" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>51</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>48</v>
@@ -4878,7 +3913,7 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -4900,7 +3935,7 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -4935,13 +3970,13 @@
         <v>6</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I117" s="13" t="s">
         <v>0</v>
@@ -4950,7 +3985,7 @@
     <row r="118" spans="1:19">
       <c r="A118" s="11"/>
       <c r="B118" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>4</v>
@@ -4959,16 +3994,16 @@
         <v>5</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I118" s="12" t="s">
         <v>1</v>
@@ -4976,7 +4011,7 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -4998,7 +4033,7 @@
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -5033,7 +4068,7 @@
         <v>6</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G122" s="13" t="s">
         <v>10</v>
@@ -5075,7 +4110,7 @@
     <row r="123" spans="1:19">
       <c r="A123" s="11"/>
       <c r="B123" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>4</v>
@@ -5084,25 +4119,25 @@
         <v>5</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G123" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L123" s="12" t="s">
         <v>15</v>
@@ -5128,7 +4163,7 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -5151,7 +4186,7 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -5187,10 +4222,10 @@
         <v>6</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H127" s="13" t="s">
         <v>10</v>
@@ -5232,37 +4267,37 @@
     <row r="128" spans="1:19">
       <c r="A128" s="11"/>
       <c r="B128" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M128" s="12" t="s">
         <v>15</v>
@@ -5288,7 +4323,7 @@
     </row>
     <row r="129" spans="1:19">
       <c r="A129" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -5311,7 +4346,7 @@
     </row>
     <row r="131" spans="1:19">
       <c r="A131" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -5347,10 +4382,10 @@
         <v>6</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H132" s="13" t="s">
         <v>0</v>
@@ -5359,7 +4394,7 @@
     <row r="133" spans="1:19">
       <c r="A133" s="11"/>
       <c r="B133" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>4</v>
@@ -5368,13 +4403,13 @@
         <v>5</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H133" s="19" t="s">
         <v>1</v>
@@ -5382,7 +4417,7 @@
     </row>
     <row r="134" spans="1:19">
       <c r="A134" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5405,7 +4440,7 @@
     </row>
     <row r="136" spans="1:19">
       <c r="A136" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -5441,10 +4476,10 @@
         <v>6</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H137" s="13" t="s">
         <v>0</v>
@@ -5453,7 +4488,7 @@
     <row r="138" spans="1:19">
       <c r="A138" s="11"/>
       <c r="B138" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>4</v>
@@ -5462,13 +4497,13 @@
         <v>5</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H138" s="19" t="s">
         <v>1</v>
@@ -5476,7 +4511,7 @@
     </row>
     <row r="139" spans="1:19">
       <c r="A139" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -5499,7 +4534,7 @@
     </row>
     <row r="141" spans="1:19">
       <c r="A141" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5535,13 +4570,13 @@
         <v>6</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I142" s="13" t="s">
         <v>0</v>
@@ -5550,7 +4585,7 @@
     <row r="143" spans="1:19">
       <c r="A143" s="11"/>
       <c r="B143" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>4</v>
@@ -5559,16 +4594,16 @@
         <v>5</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="I143" s="19" t="s">
         <v>1</v>
@@ -5576,7 +4611,7 @@
     </row>
     <row r="144" spans="1:19">
       <c r="A144" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5599,7 +4634,7 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -5635,13 +4670,13 @@
         <v>6</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I147" s="13" t="s">
         <v>11</v>
@@ -5650,28 +4685,28 @@
         <v>20</v>
       </c>
       <c r="K147" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L147" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M147" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N147" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O147" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="L147" s="13" t="s">
+      <c r="P147" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="M147" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="N147" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="O147" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="P147" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="Q147" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R147" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S147" s="13" t="s">
         <v>0</v>
@@ -5680,7 +4715,7 @@
     <row r="148" spans="1:41">
       <c r="A148" s="11"/>
       <c r="B148" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>4</v>
@@ -5689,40 +4724,40 @@
         <v>5</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
       <c r="N148" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O148" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R148" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S148" s="19" t="s">
         <v>1</v>
@@ -5730,7 +4765,7 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -5753,7 +4788,7 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -5789,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H152" s="13" t="s">
         <v>0</v>
@@ -5801,7 +4836,7 @@
     <row r="153" spans="1:41">
       <c r="A153" s="11"/>
       <c r="B153" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>4</v>
@@ -5810,13 +4845,13 @@
         <v>5</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H153" s="19" t="s">
         <v>1</v>
@@ -5824,7 +4859,7 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -5847,7 +4882,7 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -5905,19 +4940,19 @@
         <v>6</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J157" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K157" s="13" t="s">
         <v>0</v>
@@ -5926,7 +4961,7 @@
     <row r="158" spans="1:41">
       <c r="A158" s="11"/>
       <c r="B158" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>4</v>
@@ -5935,22 +4970,22 @@
         <v>5</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J158" s="20">
-        <v>2</v>
+        <v>132</v>
+      </c>
+      <c r="J158" s="32" t="s">
+        <v>293</v>
       </c>
       <c r="K158" s="19" t="s">
         <v>1</v>
@@ -5958,7 +4993,7 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -6003,7 +5038,7 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" s="14" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -6061,22 +5096,22 @@
         <v>6</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I162" s="13" t="s">
         <v>54</v>
       </c>
       <c r="J162" s="13" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K162" s="13" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L162" s="13" t="s">
         <v>25</v>
@@ -6091,7 +5126,7 @@
     <row r="163" spans="1:41">
       <c r="A163" s="11"/>
       <c r="B163" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>4</v>
@@ -6100,13 +5135,13 @@
         <v>5</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H163" s="20">
         <v>11111111</v>
@@ -6115,13 +5150,13 @@
         <v>111111</v>
       </c>
       <c r="J163" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K163" s="20" t="s">
         <v>23</v>
       </c>
       <c r="L163" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M163" s="20" t="s">
         <v>28</v>
@@ -6132,7 +5167,7 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" s="14" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -6177,7 +5212,7 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" s="14" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -6235,19 +5270,19 @@
         <v>6</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H167" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I167" s="13" t="s">
         <v>54</v>
       </c>
       <c r="J167" s="13" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K167" s="13" t="s">
         <v>0</v>
@@ -6256,7 +5291,7 @@
     <row r="168" spans="1:41">
       <c r="A168" s="11"/>
       <c r="B168" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>4</v>
@@ -6265,13 +5300,13 @@
         <v>5</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H168" s="20" t="s">
         <v>55</v>
@@ -6280,7 +5315,7 @@
         <v>111111</v>
       </c>
       <c r="J168" s="20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K168" s="19" t="s">
         <v>1</v>
@@ -6288,7 +5323,7 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" s="14" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -6376,7 +5411,7 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" s="14" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -6434,10 +5469,10 @@
         <v>6</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H172" s="13" t="s">
         <v>0</v>
@@ -6446,7 +5481,7 @@
     <row r="173" spans="1:41">
       <c r="A173" s="11"/>
       <c r="B173" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>4</v>
@@ -6455,13 +5490,13 @@
         <v>5</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="H173" s="19" t="s">
         <v>1</v>
@@ -6469,7 +5504,7 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" s="14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -6557,7 +5592,7 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -6636,10 +5671,10 @@
         <v>18</v>
       </c>
       <c r="M177" s="13" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N177" s="13" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="O177" s="13" t="s">
         <v>20</v>
@@ -6660,7 +5695,7 @@
     <row r="178" spans="1:41">
       <c r="A178" s="11"/>
       <c r="B178" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>4</v>
@@ -6669,34 +5704,34 @@
         <v>5</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F178" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G178" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H178" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I178" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K178" s="12" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="L178" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M178" s="12" t="s">
-        <v>246</v>
+        <v>345</v>
       </c>
       <c r="N178" s="12" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="O178" s="12" t="s">
         <v>48</v>
@@ -6716,7 +5751,7 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -6804,7 +5839,7 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -6865,7 +5900,7 @@
         <v>10</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H182" s="13" t="s">
         <v>8</v>
@@ -6901,34 +5936,34 @@
     <row r="183" spans="1:41">
       <c r="A183" s="11"/>
       <c r="B183" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F183" s="21" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G183" s="21" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>51</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K183" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L183" s="12" t="s">
         <v>15</v>
@@ -6951,7 +5986,7 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" s="14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -7039,7 +6074,7 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" s="14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -7097,13 +6132,13 @@
         <v>6</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H187" s="13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I187" s="13" t="s">
         <v>0</v>
@@ -7112,7 +6147,7 @@
     <row r="188" spans="1:41">
       <c r="A188" s="11"/>
       <c r="B188" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C188" s="16" t="s">
         <v>4</v>
@@ -7121,13 +6156,13 @@
         <v>5</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H188" s="20">
         <v>39.99</v>
@@ -7138,7 +6173,7 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" s="14" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -7226,7 +6261,7 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -7284,10 +6319,10 @@
         <v>6</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H192" s="13" t="s">
         <v>0</v>
@@ -7296,7 +6331,7 @@
     <row r="193" spans="1:41">
       <c r="A193" s="11"/>
       <c r="B193" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>4</v>
@@ -7305,13 +6340,13 @@
         <v>5</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H193" s="12" t="s">
         <v>1</v>
@@ -7319,7 +6354,7 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" s="14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -7364,7 +6399,7 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" s="14" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -7461,31 +6496,31 @@
     <row r="198" spans="1:41">
       <c r="A198" s="11"/>
       <c r="B198" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C198" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F198" s="21" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H198" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J198" s="12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K198" s="12" t="s">
         <v>15</v>
@@ -7511,7 +6546,7 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7556,7 +6591,7 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7635,7 +6670,7 @@
         <v>18</v>
       </c>
       <c r="M202" s="13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="N202" s="13" t="s">
         <v>60</v>
@@ -7650,31 +6685,31 @@
         <v>63</v>
       </c>
       <c r="R202" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="S202" s="13" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="T202" s="13" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="U202" s="13" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="V202" s="13" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="W202" s="13" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="X202" s="13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Y202" s="13" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="Z202" s="13" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AA202" s="13" t="s">
         <v>34</v>
@@ -7695,7 +6730,7 @@
     <row r="203" spans="1:41">
       <c r="A203" s="11"/>
       <c r="B203" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>4</v>
@@ -7704,37 +6739,37 @@
         <v>5</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F203" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G203" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H203" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J203" s="12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K203" s="12" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L203" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M203" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N203" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O203" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P203" s="12" t="s">
         <v>15</v>
@@ -7743,31 +6778,31 @@
         <v>19</v>
       </c>
       <c r="R203" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="S203" s="18" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="T203" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U203" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V203" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W203" s="18" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="X203" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Y203" s="18" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Z203" s="18" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA203" s="12" t="s">
         <v>48</v>
@@ -7776,7 +6811,7 @@
         <v>23</v>
       </c>
       <c r="AC203" s="17" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AD203" s="17" t="s">
         <v>28</v>
@@ -7787,7 +6822,7 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" s="14" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7811,7 +6846,7 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" s="14" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7869,13 +6904,13 @@
         <v>18</v>
       </c>
       <c r="M207" s="13" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="N207" s="13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="O207" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P207" s="13" t="s">
         <v>34</v>
@@ -7896,7 +6931,7 @@
     <row r="208" spans="1:41">
       <c r="A208" s="11"/>
       <c r="B208" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C208" s="16" t="s">
         <v>4</v>
@@ -7905,22 +6940,22 @@
         <v>5</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G208" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I208" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J208" s="12" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="K208" s="12" t="s">
         <v>15</v>
@@ -7929,13 +6964,13 @@
         <v>19</v>
       </c>
       <c r="M208" s="12" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="N208" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O208" s="12" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="P208" s="12" t="s">
         <v>48</v>
@@ -7944,7 +6979,7 @@
         <v>23</v>
       </c>
       <c r="R208" s="17" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="S208" s="17" t="s">
         <v>28</v>
@@ -7955,7 +6990,7 @@
     </row>
     <row r="209" spans="1:20">
       <c r="A209" s="14" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7979,7 +7014,7 @@
     </row>
     <row r="211" spans="1:20">
       <c r="A211" s="14" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -8016,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G212" s="13" t="s">
         <v>0</v>
@@ -8025,7 +7060,7 @@
     <row r="213" spans="1:20">
       <c r="A213" s="11"/>
       <c r="B213" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>4</v>
@@ -8034,10 +7069,10 @@
         <v>5</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G213" s="12" t="s">
         <v>1</v>
@@ -8045,7 +7080,7 @@
     </row>
     <row r="214" spans="1:20">
       <c r="A214" s="14" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -8074,63 +7109,47 @@
     <hyperlink ref="C13" r:id="rId3"/>
     <hyperlink ref="C18" r:id="rId4"/>
     <hyperlink ref="C23" r:id="rId5"/>
-    <hyperlink ref="L23" r:id="rId6"/>
-    <hyperlink ref="C103" r:id="rId7"/>
-    <hyperlink ref="C108" r:id="rId8"/>
-    <hyperlink ref="C113" r:id="rId9"/>
-    <hyperlink ref="C118" r:id="rId10"/>
-    <hyperlink ref="C123" r:id="rId11"/>
-    <hyperlink ref="C128" r:id="rId12"/>
-    <hyperlink ref="C133" r:id="rId13"/>
-    <hyperlink ref="C138" r:id="rId14"/>
-    <hyperlink ref="C143" r:id="rId15"/>
-    <hyperlink ref="C148" r:id="rId16"/>
-    <hyperlink ref="C153" r:id="rId17"/>
-    <hyperlink ref="C158" r:id="rId18"/>
-    <hyperlink ref="C198" r:id="rId19"/>
-    <hyperlink ref="C203" r:id="rId20"/>
-    <hyperlink ref="C208" r:id="rId21"/>
-    <hyperlink ref="C213" r:id="rId22"/>
-    <hyperlink ref="C163" r:id="rId23"/>
-    <hyperlink ref="C168" r:id="rId24"/>
-    <hyperlink ref="C173" r:id="rId25"/>
-    <hyperlink ref="C178" r:id="rId26"/>
-    <hyperlink ref="C193" r:id="rId27"/>
-    <hyperlink ref="C188" r:id="rId28"/>
-    <hyperlink ref="C183" r:id="rId29"/>
-    <hyperlink ref="C28" r:id="rId30"/>
-    <hyperlink ref="L28" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="L33" r:id="rId33"/>
-    <hyperlink ref="C38" r:id="rId34"/>
-    <hyperlink ref="L38" r:id="rId35"/>
-    <hyperlink ref="C43" r:id="rId36"/>
-    <hyperlink ref="L43" r:id="rId37"/>
-    <hyperlink ref="C48" r:id="rId38"/>
-    <hyperlink ref="L48" r:id="rId39"/>
-    <hyperlink ref="C53" r:id="rId40"/>
-    <hyperlink ref="L53" r:id="rId41"/>
-    <hyperlink ref="C58" r:id="rId42"/>
-    <hyperlink ref="L58" r:id="rId43"/>
-    <hyperlink ref="C63" r:id="rId44"/>
-    <hyperlink ref="L63" r:id="rId45"/>
-    <hyperlink ref="C68" r:id="rId46"/>
-    <hyperlink ref="L68" r:id="rId47"/>
-    <hyperlink ref="C73" r:id="rId48"/>
-    <hyperlink ref="L73" r:id="rId49"/>
-    <hyperlink ref="C78" r:id="rId50"/>
-    <hyperlink ref="L78" r:id="rId51"/>
-    <hyperlink ref="C83" r:id="rId52"/>
-    <hyperlink ref="L83" r:id="rId53"/>
-    <hyperlink ref="C88" r:id="rId54"/>
-    <hyperlink ref="L88" r:id="rId55"/>
-    <hyperlink ref="C93" r:id="rId56"/>
-    <hyperlink ref="L93" r:id="rId57"/>
-    <hyperlink ref="C98" r:id="rId58"/>
-    <hyperlink ref="L98" r:id="rId59"/>
+    <hyperlink ref="C103" r:id="rId6"/>
+    <hyperlink ref="C108" r:id="rId7"/>
+    <hyperlink ref="C113" r:id="rId8"/>
+    <hyperlink ref="C118" r:id="rId9"/>
+    <hyperlink ref="C123" r:id="rId10"/>
+    <hyperlink ref="C128" r:id="rId11"/>
+    <hyperlink ref="C133" r:id="rId12"/>
+    <hyperlink ref="C138" r:id="rId13"/>
+    <hyperlink ref="C143" r:id="rId14"/>
+    <hyperlink ref="C148" r:id="rId15"/>
+    <hyperlink ref="C153" r:id="rId16"/>
+    <hyperlink ref="C158" r:id="rId17"/>
+    <hyperlink ref="C198" r:id="rId18"/>
+    <hyperlink ref="C203" r:id="rId19"/>
+    <hyperlink ref="C208" r:id="rId20"/>
+    <hyperlink ref="C213" r:id="rId21"/>
+    <hyperlink ref="C163" r:id="rId22"/>
+    <hyperlink ref="C168" r:id="rId23"/>
+    <hyperlink ref="C173" r:id="rId24"/>
+    <hyperlink ref="C178" r:id="rId25"/>
+    <hyperlink ref="C193" r:id="rId26"/>
+    <hyperlink ref="C188" r:id="rId27"/>
+    <hyperlink ref="C183" r:id="rId28"/>
+    <hyperlink ref="C28" r:id="rId29"/>
+    <hyperlink ref="C33" r:id="rId30"/>
+    <hyperlink ref="C38" r:id="rId31"/>
+    <hyperlink ref="C43" r:id="rId32"/>
+    <hyperlink ref="C48" r:id="rId33"/>
+    <hyperlink ref="C53" r:id="rId34"/>
+    <hyperlink ref="C58" r:id="rId35"/>
+    <hyperlink ref="C63" r:id="rId36"/>
+    <hyperlink ref="C68" r:id="rId37"/>
+    <hyperlink ref="C73" r:id="rId38"/>
+    <hyperlink ref="C78" r:id="rId39"/>
+    <hyperlink ref="C83" r:id="rId40"/>
+    <hyperlink ref="C88" r:id="rId41"/>
+    <hyperlink ref="C93" r:id="rId42"/>
+    <hyperlink ref="C98" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
@@ -8154,7 +7173,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8165,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -8173,13 +7192,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
@@ -8187,7 +7206,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -8202,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8213,12 +7232,12 @@
     <col min="3" max="3" width="15.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
@@ -8230,7 +7249,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -8271,19 +7290,19 @@
         <v>41</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>40</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="R2" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>0</v>
@@ -8291,7 +7310,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="B3" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>4</v>
@@ -8312,7 +7331,7 @@
         <v>33</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>38</v>
@@ -8327,19 +7346,19 @@
         <v>43</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>44</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>1</v>
@@ -8347,12 +7366,12 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -8393,19 +7412,19 @@
         <v>41</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="R7" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>0</v>
@@ -8413,7 +7432,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>4</v>
@@ -8434,7 +7453,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>38</v>
@@ -8449,19 +7468,19 @@
         <v>43</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>44</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>1</v>
@@ -8469,12 +7488,12 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -8515,19 +7534,19 @@
         <v>41</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="P12" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="R12" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="S12" s="13" t="s">
         <v>0</v>
@@ -8535,7 +7554,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>4</v>
@@ -8556,19 +7575,19 @@
         <v>33</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>164</v>
+        <v>331</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>31</v>
@@ -8577,13 +7596,13 @@
         <v>44</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>1</v>
@@ -8591,12 +7610,12 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8637,19 +7656,19 @@
         <v>41</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O17" s="13" t="s">
         <v>40</v>
       </c>
       <c r="P17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q17" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="R17" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="S17" s="13" t="s">
         <v>0</v>
@@ -8657,7 +7676,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="B18" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>4</v>
@@ -8678,19 +7697,19 @@
         <v>33</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>31</v>
@@ -8699,13 +7718,13 @@
         <v>44</v>
       </c>
       <c r="P18" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="Q18" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="R18" s="20" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>1</v>
@@ -8713,12 +7732,12 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -8735,21 +7754,18 @@
         <v>6</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="I22" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="B23" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>4</v>
@@ -8761,21 +7777,18 @@
         <v>7</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="14" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -8794,31 +7807,33 @@
   <dimension ref="A1:S127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -8841,10 +7856,10 @@
         <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>25</v>
@@ -8853,13 +7868,13 @@
         <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>0</v>
@@ -8867,7 +7882,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -8879,31 +7894,31 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>1</v>
@@ -8911,12 +7926,12 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -8939,10 +7954,10 @@
         <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>25</v>
@@ -8951,25 +7966,25 @@
         <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="R7" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>0</v>
@@ -8977,7 +7992,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -8989,43 +8004,43 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="I8" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>1</v>
@@ -9033,12 +8048,12 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -9061,10 +8076,10 @@
         <v>35</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>25</v>
@@ -9073,25 +8088,25 @@
         <v>30</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="R12" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>0</v>
@@ -9099,7 +8114,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="B13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>4</v>
@@ -9111,43 +8126,43 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="I13" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>1</v>
@@ -9155,12 +8170,12 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9183,10 +8198,10 @@
         <v>35</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>25</v>
@@ -9195,25 +8210,25 @@
         <v>30</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="R17" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>0</v>
@@ -9221,7 +8236,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="B18" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>4</v>
@@ -9233,43 +8248,43 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="I18" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>1</v>
@@ -9277,12 +8292,12 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="11:11">
       <c r="K127" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -9333,7 +8348,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="23" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -9350,28 +8365,28 @@
         <v>6</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>18</v>
@@ -9380,31 +8395,31 @@
         <v>20</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T2" s="25" t="s">
         <v>54</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="Y2" s="25" t="s">
         <v>0</v>
@@ -9412,7 +8427,7 @@
     </row>
     <row r="3" spans="1:25" ht="45">
       <c r="B3" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>4</v>
@@ -9421,37 +8436,37 @@
         <v>5</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L3" s="26" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>23</v>
@@ -9469,16 +8484,16 @@
         <v>56</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="Y3" s="26" t="s">
         <v>1</v>
@@ -9486,12 +8501,12 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="23" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="23" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -9508,31 +8523,31 @@
         <v>6</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>18</v>
@@ -9541,22 +8556,22 @@
         <v>20</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="S7" s="25" t="s">
         <v>26</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U7" s="25" t="s">
         <v>54</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="W7" s="25" t="s">
         <v>0</v>
@@ -9564,7 +8579,7 @@
     </row>
     <row r="8" spans="1:25" ht="105">
       <c r="B8" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>4</v>
@@ -9573,40 +8588,40 @@
         <v>5</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M8" s="26" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>23</v>
@@ -9624,7 +8639,7 @@
         <v>56</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="W8" s="26" t="s">
         <v>1</v>
@@ -9632,12 +8647,12 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="23" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="23" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -9654,52 +8669,52 @@
         <v>6</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="R12" s="25" t="s">
         <v>20</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="T12" s="25" t="s">
         <v>26</v>
       </c>
       <c r="U12" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V12" s="25" t="s">
         <v>54</v>
@@ -9710,55 +8725,55 @@
     </row>
     <row r="13" spans="1:25" ht="45">
       <c r="B13" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L13" s="26" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N13" s="26" t="s">
         <v>16</v>
       </c>
       <c r="O13" s="26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>27</v>
@@ -9778,13 +8793,1471 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="23" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG107"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="16.5703125" style="11" customWidth="1"/>
+    <col min="13" max="15" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="11" customWidth="1"/>
+    <col min="23" max="27" width="16.42578125" style="11" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" style="11" customWidth="1"/>
+    <col min="31" max="31" width="16.85546875" style="11" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="B3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J3" s="20">
+        <v>1</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="T3" s="20">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="12.75" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA7" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="B8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J8" s="20">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="T8" s="20">
+        <v>0</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="W8" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="X8" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA12" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="B13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="T13" s="20">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="W13" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="B17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z17" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA17" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB17" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="B18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="J18" s="20">
+        <v>1</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="T18" s="20">
+        <v>0</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="W18" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="X18" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB18" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z22" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA22" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB22" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC22" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE22" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF22" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="B23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J23" s="20">
+        <v>1</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0</v>
+      </c>
+      <c r="L23" s="20">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="T23" s="20">
+        <v>0</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z23" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC23" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD23" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE23" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF23" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="B27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="B28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="B32" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA32" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB32" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC32" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE32" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF32" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG32" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="B33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J33" s="20">
+        <v>1</v>
+      </c>
+      <c r="K33" s="20">
+        <v>0</v>
+      </c>
+      <c r="L33" s="20">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="W33" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y33" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA33" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB33" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC33" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD33" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE33" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG33" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="16:16">
+      <c r="P107" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId4"/>
+    <hyperlink ref="C23" r:id="rId5"/>
+    <hyperlink ref="C28" r:id="rId6"/>
+    <hyperlink ref="C33" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="11" customFormat="1">
+      <c r="A1" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="11" customFormat="1">
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1">
+      <c r="B3" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="11" customFormat="1">
+      <c r="A4" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="14" t="s">
+        <v>426</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
